--- a/Blood cancer/output/under_expressed_genes_top20.xlsx
+++ b/Blood cancer/output/under_expressed_genes_top20.xlsx
@@ -32,124 +32,124 @@
     <t xml:space="preserve">adjp</t>
   </si>
   <si>
-    <t xml:space="preserve">A1BG-AS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000268895.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000175899.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2M-AS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000245105.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000115977.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AATBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000215458.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000183044.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000165029.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000107331.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000154265.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000085563.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000103222.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000023839.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000091262.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000119688.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABCG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000160179.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD12B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000131969.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000139826.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000168792.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD17AP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000198658.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABHD17B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSG00000107362.13</t>
+    <t xml:space="preserve">A1BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000121410.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AACSP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000250420.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000103591.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAMDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000087884.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000090861.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABALON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000281376.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000167972.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000141338.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB10P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000274099.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB10P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000261524.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB10P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000260053.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000115657.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000197150.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000125257.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000033050.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000106077.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000011198.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000175164.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000146109.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC000041.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000242156.1</t>
   </si>
 </sst>
 </file>
@@ -509,16 +509,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>9.24</v>
+        <v>6.45</v>
       </c>
       <c r="D2" t="n">
-        <v>2.895</v>
+        <v>18.61</v>
       </c>
       <c r="E2" t="n">
-        <v>1.394</v>
+        <v>-1.396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000000000000000000000000000000013</v>
+        <v>0.00000000000000000000000000000401</v>
       </c>
     </row>
     <row r="3">
@@ -529,16 +529,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.515</v>
+        <v>2.535</v>
       </c>
       <c r="E3" t="n">
-        <v>1.408</v>
+        <v>-1.822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000000000000000000119</v>
+        <v>4.1e-229</v>
       </c>
     </row>
     <row r="4">
@@ -549,16 +549,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>2.16</v>
+        <v>20.52</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.548</v>
       </c>
       <c r="E4" t="n">
-        <v>1.66</v>
+        <v>-1.315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000000000000000000000000000000000000672</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000398</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +569,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>55.981</v>
+        <v>13.39</v>
       </c>
       <c r="D5" t="n">
-        <v>8.71</v>
+        <v>28.505</v>
       </c>
       <c r="E5" t="n">
-        <v>2.553</v>
+        <v>-1.036</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000128</v>
+        <v>0.000000000000000000000000000000000000000000000000366</v>
       </c>
     </row>
     <row r="6">
@@ -589,16 +589,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>4.13</v>
+        <v>31.441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.565</v>
+        <v>205.329</v>
       </c>
       <c r="E6" t="n">
-        <v>1.713</v>
+        <v>-2.669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000000000000000000000000000000000000000456</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000238</v>
       </c>
     </row>
     <row r="7">
@@ -609,16 +609,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>7.83</v>
+        <v>0.96</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175</v>
+        <v>3.3</v>
       </c>
       <c r="E7" t="n">
-        <v>2.91</v>
+        <v>-1.133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000481</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000128</v>
       </c>
     </row>
     <row r="8">
@@ -629,16 +629,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>3.81</v>
+        <v>2.38</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02</v>
+        <v>7.385</v>
       </c>
       <c r="E8" t="n">
-        <v>2.237</v>
+        <v>-1.311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00000000000000000000000000000000000000000000000513</v>
+        <v>0.00000000000000000000000264</v>
       </c>
     </row>
     <row r="9">
@@ -649,16 +649,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>48.86</v>
+        <v>0.16</v>
       </c>
       <c r="D9" t="n">
-        <v>15.95</v>
+        <v>12.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1.557</v>
+        <v>-3.572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0000000000000000000532</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000231</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>6.07</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.535</v>
+        <v>2.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1.48</v>
+        <v>-1.907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0000000000000000000000979</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000012</v>
       </c>
     </row>
     <row r="11">
@@ -689,16 +689,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.285</v>
+        <v>10.505</v>
       </c>
       <c r="E11" t="n">
-        <v>1.458</v>
+        <v>-3.524</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000000000000000000264</v>
+        <v>4.13e-251</v>
       </c>
     </row>
     <row r="12">
@@ -709,16 +709,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>54.191</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>20.569</v>
+        <v>25.325</v>
       </c>
       <c r="E12" t="n">
-        <v>1.355</v>
+        <v>-4.718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000000000000000000000357</v>
+        <v>1.42e-256</v>
       </c>
     </row>
     <row r="13">
@@ -729,16 +729,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>1.11</v>
+        <v>5.31</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05</v>
+        <v>20.2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.007</v>
+        <v>-1.748</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000234</v>
+        <v>0.00000000000000000000000000000134</v>
       </c>
     </row>
     <row r="14">
@@ -749,16 +749,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>5.18</v>
+        <v>18.02</v>
       </c>
       <c r="D14" t="n">
-        <v>0.195</v>
+        <v>45.984</v>
       </c>
       <c r="E14" t="n">
-        <v>2.371</v>
+        <v>-1.305</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000792</v>
+        <v>0.00000000000000000000000000000000000000000000000000021</v>
       </c>
     </row>
     <row r="15">
@@ -769,16 +769,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>50.882</v>
+        <v>9.07</v>
       </c>
       <c r="D15" t="n">
-        <v>18.08</v>
+        <v>20.554</v>
       </c>
       <c r="E15" t="n">
-        <v>1.443</v>
+        <v>-1.098</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000164</v>
+        <v>0.000000000000000246</v>
       </c>
     </row>
     <row r="16">
@@ -789,16 +789,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>6.2</v>
+        <v>24.609</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03</v>
+        <v>54.57</v>
       </c>
       <c r="E16" t="n">
-        <v>2.805</v>
+        <v>-1.118</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000000000000000000000000000000000000000000000000829</v>
+        <v>0.000000000000000000000000000000000000000000000000000063</v>
       </c>
     </row>
     <row r="17">
@@ -809,16 +809,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>4.61</v>
+        <v>7.67</v>
       </c>
       <c r="D17" t="n">
-        <v>0.12</v>
+        <v>21.41</v>
       </c>
       <c r="E17" t="n">
-        <v>2.325</v>
+        <v>-1.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000591</v>
+        <v>0.00000000000000000000000000000000000545</v>
       </c>
     </row>
     <row r="18">
@@ -829,16 +829,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>8.19</v>
+        <v>13.85</v>
       </c>
       <c r="D18" t="n">
-        <v>3.31</v>
+        <v>38.019</v>
       </c>
       <c r="E18" t="n">
-        <v>1.092</v>
+        <v>-1.394</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00000000000000000000000000000000000000000000000115</v>
+        <v>0.000000000000000000000000000000000104</v>
       </c>
     </row>
     <row r="19">
@@ -849,16 +849,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>12.37</v>
+        <v>1.52</v>
       </c>
       <c r="D19" t="n">
-        <v>2.21</v>
+        <v>10.93</v>
       </c>
       <c r="E19" t="n">
-        <v>2.058</v>
+        <v>-2.243</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000201</v>
+        <v>0.0000000000103</v>
       </c>
     </row>
     <row r="20">
@@ -869,16 +869,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>2.2</v>
+        <v>9.66</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165</v>
+        <v>24.48</v>
       </c>
       <c r="E20" t="n">
-        <v>1.458</v>
+        <v>-1.257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000372</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000217</v>
       </c>
     </row>
     <row r="21">
@@ -889,16 +889,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>21.96</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.755</v>
+        <v>7.885</v>
       </c>
       <c r="E21" t="n">
-        <v>1.391</v>
+        <v>-3.151</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0000000000000000000000000000000000000197</v>
+        <v>0.000000000000000000000000000000135</v>
       </c>
     </row>
   </sheetData>
